--- a/books/carbomica_databook_AKHS_Mombasa.xlsx
+++ b/books/carbomica_databook_AKHS_Mombasa.xlsx
@@ -601,7 +601,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +613,10 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="11" width="9.42578125" customWidth="1"/>
+    <col min="7" max="12" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -648,8 +648,11 @@
       <c r="K1" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -669,14 +672,15 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G2:L2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+      <formula>AND(COUNTIF(G2:L2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -694,7 +698,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -706,10 +710,10 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="11" width="9.42578125" customWidth="1"/>
+    <col min="7" max="12" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K1" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -762,8 +769,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -795,8 +803,11 @@
       <c r="K4" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -816,8 +827,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -849,8 +861,11 @@
       <c r="K7" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -870,8 +885,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -903,8 +919,11 @@
       <c r="K10" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -924,8 +943,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -957,8 +977,11 @@
       <c r="K13" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -978,8 +1001,9 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1011,8 +1035,11 @@
       <c r="K16" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1032,8 +1059,9 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1065,8 +1093,11 @@
       <c r="K19" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1086,8 +1117,9 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1119,8 +1151,11 @@
       <c r="K22" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1140,8 +1175,9 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1173,8 +1209,11 @@
       <c r="K25" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1194,8 +1233,9 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,8 +1267,11 @@
       <c r="K28" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1248,86 +1291,87 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G11:L11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+      <formula>AND(COUNTIF(G11:L11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>COUNTIF(G14:K14,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G14:L14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(COUNTIF(G14:K14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+      <formula>AND(COUNTIF(G14:L14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G17:L17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+      <formula>AND(COUNTIF(G17:L17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G2:L2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+      <formula>AND(COUNTIF(G2:L2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G20:L20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
+      <formula>AND(COUNTIF(G20:L20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G23:L23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+      <formula>AND(COUNTIF(G23:L23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
     <cfRule type="expression" dxfId="0" priority="17">
-      <formula>COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G26:L26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="18">
-      <formula>AND(COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+      <formula>AND(COUNTIF(G26:L26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>COUNTIF(G29:K29,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G29:L29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="20">
-      <formula>AND(COUNTIF(G29:K29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+      <formula>AND(COUNTIF(G29:L29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G5:L5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+      <formula>AND(COUNTIF(G5:L5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G8:L8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+      <formula>AND(COUNTIF(G8:L8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
@@ -1371,7 +1415,7 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1383,10 +1427,10 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="11" width="9.42578125" customWidth="1"/>
+    <col min="7" max="12" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1462,11 @@
       <c r="K1" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1442,8 +1489,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1475,8 +1523,11 @@
       <c r="K4" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1499,8 +1550,9 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,8 +1584,11 @@
       <c r="K7" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1556,8 +1611,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1589,8 +1645,11 @@
       <c r="K10" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1613,8 +1672,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1646,8 +1706,11 @@
       <c r="K13" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1670,8 +1733,9 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1703,8 +1767,11 @@
       <c r="K16" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1727,8 +1794,9 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1760,8 +1828,11 @@
       <c r="K19" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1784,8 +1855,9 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1817,8 +1889,11 @@
       <c r="K22" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1841,8 +1916,9 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1874,8 +1950,11 @@
       <c r="K25" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1898,8 +1977,9 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1931,8 +2011,11 @@
       <c r="K28" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>AKHS_Mombasa</v>
@@ -1955,86 +2038,87 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G11:L11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND(COUNTIF(G11:K11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+      <formula>AND(COUNTIF(G11:L11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>COUNTIF(G14:K14,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G14:L14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="10">
-      <formula>AND(COUNTIF(G14:K14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+      <formula>AND(COUNTIF(G14:L14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G17:L17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="12">
-      <formula>AND(COUNTIF(G17:K17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+      <formula>AND(COUNTIF(G17:L17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G2:L2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(COUNTIF(G2:K2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
+      <formula>AND(COUNTIF(G2:L2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G20:L20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND(COUNTIF(G20:K20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
+      <formula>AND(COUNTIF(G20:L20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G23:L23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND(COUNTIF(G23:K23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
+      <formula>AND(COUNTIF(G23:L23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
     <cfRule type="expression" dxfId="0" priority="17">
-      <formula>COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G26:L26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="18">
-      <formula>AND(COUNTIF(G26:K26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
+      <formula>AND(COUNTIF(G26:L26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>COUNTIF(G29:K29,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G29:L29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="20">
-      <formula>AND(COUNTIF(G29:K29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
+      <formula>AND(COUNTIF(G29:L29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G5:L5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(COUNTIF(G5:K5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
+      <formula>AND(COUNTIF(G5:L5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0</formula>
+      <formula>COUNTIF(G8:L8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND(COUNTIF(G8:K8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
+      <formula>AND(COUNTIF(G8:L8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
